--- a/04-10-2019-18.19.xlsx
+++ b/04-10-2019-18.19.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Statistik &amp; Probabilitas\Data Kendaraan\dataKendaraan-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249BD758-BA94-4C40-B1FA-418E6BC88006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>JAM</t>
   </si>
   <si>
@@ -43,13 +40,22 @@
   </si>
   <si>
     <t>18.40 - 18.50</t>
+  </si>
+  <si>
+    <t>18.30 - 18.40</t>
+  </si>
+  <si>
+    <t>18.50 - 19.00</t>
+  </si>
+  <si>
+    <t>18.10 - 18.20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +96,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -136,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,9 +182,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,6 +234,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,86 +427,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>206</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>175</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="1">
+        <v>198</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>206</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>198</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
+      <c r="B7" s="1">
+        <v>190</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -465,24 +524,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
